--- a/biology/Zoologie/Azuré_porte-queue/Azuré_porte-queue.xlsx
+++ b/biology/Zoologie/Azuré_porte-queue/Azuré_porte-queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampides boeticus
 L’Azuré porte-queue (Lampides boeticus) est une espèce de lépidoptères de la famille des Lycaenidae. Ce petit papillon migrateur a une aire de répartition particulièrement étendue, couvrant l'Afrique, le Sud de l'Europe et de l'Asie, et l'Océanie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : actuellement l’Azuré porte-queue. Il existe plusieurs noms plus anciens : l'Argus porte-queue, le Porte-queue bleu strié, le Strié, le Polyommate boéticus, le Polyommate strié[1],[2].
-En anglais : Long-tailed Blue, Pea-pod Argus ou Pea Blue[3].
-En allemand : Großer Wanderbläuling[4].
-En espagnol : Canela Estriada[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : actuellement l’Azuré porte-queue. Il existe plusieurs noms plus anciens : l'Argus porte-queue, le Porte-queue bleu strié, le Strié, le Polyommate boéticus, le Polyommate strié,.
+En anglais : Long-tailed Blue, Pea-pod Argus ou Pea Blue.
+En allemand : Großer Wanderbläuling.
+En espagnol : Canela Estriada.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago de Lampides boeticus est un petit papillon qui a en moyenne de 2,5 à 4 cm d'envergure[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago de Lampides boeticus est un petit papillon qui a en moyenne de 2,5 à 4 cm d'envergure. 
 			Lampides boeticus ♂  MHNT
 			Lampides boeticus ♂  △
 Ce papillon présente un dimorphisme sexuel de couleur : le dessus du mâle est bleu violet, tandis que celui de la femelle est marron suffusé de bleu. Les deux sexes ont aux ailes postérieures les mêmes queues en n2 et deux points noirs à l'angle anal.
@@ -557,8 +573,6 @@
 			Accouplement.
 			Œufs.
 			Chenille.
-Espèces ressemblantes
-En Europe, le revers des ailes de Lampides boeticus peut être confondu avec ceux de Leptotes pirithous et Cacyreus marshalli.
 </t>
         </is>
       </c>
@@ -569,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,16 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-Il vole en plusieurs générations, de février à novembre en Europe, et toute l'année aux îles Canaries[6].
-Plantes hôtes et myrmécophilie
-Ses plantes hôtes sont de très nombreuses Fabacées, par exemple Colutea arborescens (le Baguenaudier), Pisum sativum (le Pois cultivé) et Phaseolus vulgaris (le Haricot)[7],[6].
-La chenille est soignée par des fourmis, Lasius niger, Camponotus cruentatus, Camponotus sylvaticus, Camponotus foreli, Prenoleis clandestina et Tapinoma melanocephalum[6].
+          <t>Espèces ressemblantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, le revers des ailes de Lampides boeticus peut être confondu avec ceux de Leptotes pirithous et Cacyreus marshalli.
 </t>
         </is>
       </c>
@@ -604,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,18 +635,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent dans toute l'Afrique, dans la partie sud de l'Espagne, de la France, de l'Italie, les îles et les côtes méditerranéennes, la Turquie, tout le sud de l'Asie, l'Australie[6],[7], les États fédérés de Micronésie[8].
-En Europe, il est migrateur sur le reste de l'Espagne, de la France, de l'Italie, en Belgique, Hollande, Suisse, Allemagne, jusqu'au 54°N, rarement en Angleterre[6],[9].
-En France métropolitaine, il serait résident dans les départements qui bordent la Méditerranée et migrateur dans tous les autres[6].
-Il est présent aux Mascareignes (donc à La Réunion).
-En Asie, il est aussi migrateur ; c'est le seul Lycaenidae reconnu migrateur en Inde[10].
-Biotope
-Son habitat est varié : friches, cultures, jardins d'agrément.
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations, de février à novembre en Europe, et toute l'année aux îles Canaries.
 </t>
         </is>
       </c>
@@ -641,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_porte-queue</t>
+          <t>Azuré_porte-queue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,89 +672,242 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes et myrmécophilie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont de très nombreuses Fabacées, par exemple Colutea arborescens (le Baguenaudier), Pisum sativum (le Pois cultivé) et Phaseolus vulgaris (le Haricot),.
+La chenille est soignée par des fourmis, Lasius niger, Camponotus cruentatus, Camponotus sylvaticus, Camponotus foreli, Prenoleis clandestina et Tapinoma melanocephalum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Afrique, dans la partie sud de l'Espagne, de la France, de l'Italie, les îles et les côtes méditerranéennes, la Turquie, tout le sud de l'Asie, l'Australie les États fédérés de Micronésie.
+En Europe, il est migrateur sur le reste de l'Espagne, de la France, de l'Italie, en Belgique, Hollande, Suisse, Allemagne, jusqu'au 54°N, rarement en Angleterre,.
+En France métropolitaine, il serait résident dans les départements qui bordent la Méditerranée et migrateur dans tous les autres.
+Il est présent aux Mascareignes (donc à La Réunion).
+En Asie, il est aussi migrateur ; c'est le seul Lycaenidae reconnu migrateur en Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est varié : friches, cultures, jardins d'agrément.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce aujourd'hui appelée Lampides boeticus a été décrite par le naturaliste suédois Carl von Linné en 1767 sous le nom initial de Papilio boeticus[11]. 
-Au sein de l'ordre des lépidoptères, elle est classée dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini[12]. 
-Elle est l'espèce type du genre Lampides Hübner, [1819], et actuellement son unique espèce. 
-Synonymes
-Selon FUNET Tree of Life  (19 avril 2019)[3] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce aujourd'hui appelée Lampides boeticus a été décrite par le naturaliste suédois Carl von Linné en 1767 sous le nom initial de Papilio boeticus. 
+Au sein de l'ordre des lépidoptères, elle est classée dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini. 
+Elle est l'espèce type du genre Lampides Hübner, , et actuellement son unique espèce. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (19 avril 2019) :
 Papilio boeticus Linnaeus, 1767 — protonyme
 Papilio damoetes Fabricius, 1775
 Papilio coluteae Fuessly, 1775
-Papilio archias Cramer, [1777]
+Papilio archias Cramer, 
 Papilio pisorum Fourcroy, 1785
 Papilio boetica Fabricius, 1793
 Polyommatus bagus Distant, 1886
 Polyommatus yanagawensis Hori, 1923
-Lampides obsoleta Evans, [1925]
+Lampides obsoleta Evans, 
 Lampides infuscata Querci, 1932
 Lampides anamariae Gómez Bustillo, 1973
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_porte-queue</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_porte-queue</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Azuré_porte-queue</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_porte-queue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Vanuatu en 1990 et le Sultanat d'Oman en 2000 lui ont dédié un timbre[13],[14].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Vanuatu en 1990 et le Sultanat d'Oman en 2000 lui ont dédié un timbre,.
 </t>
         </is>
       </c>
